--- a/BBDD/CSV/alertas_ataque_fg.xlsx
+++ b/BBDD/CSV/alertas_ataque_fg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104880F99D7D5C5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4123C6D4-CF7E-4932-9BA0-BAF8EB923DE2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104880F99D7D5C5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED90DF9-4BC1-447F-B566-B0761EEBA287}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="1230" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1910" yWindow="1860" windowWidth="25910" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="144">
   <si>
     <t>T1595.002-Port_Scanning_[3].pcapng</t>
   </si>
@@ -971,7 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1333,8 +1335,8 @@
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
+      <c r="B33" s="2">
+        <v>8064362</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>134</v>
